--- a/Desarrollo/GT/Gestión/GT-CP.xlsx
+++ b/Desarrollo/GT/Gestión/GT-CP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="145">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -336,9 +336,6 @@
     <t>GT-DPUR_03.DOCX</t>
   </si>
   <si>
-    <t>Barbosa/DB/DBA, Coronel/SM</t>
-  </si>
-  <si>
     <t>Prueba unitaria requisito 4</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>GT-DPUR_04.DOCX</t>
   </si>
   <si>
-    <t>Matos/DF, Jauregui/DUX</t>
-  </si>
-  <si>
     <t>Aplicar Reglas de acceso a la Base de Datos</t>
   </si>
   <si>
@@ -360,16 +354,16 @@
     <t>GT-DABD.DOCX</t>
   </si>
   <si>
+    <t>Realizar Pruebas finales del Software</t>
+  </si>
+  <si>
+    <t>Documento de Pruebas del Software</t>
+  </si>
+  <si>
+    <t>GT-DPS.DOCX</t>
+  </si>
+  <si>
     <t>Mayor/JP/AS, Valega/AQA/TST</t>
-  </si>
-  <si>
-    <t>Realizar Pruebas finales del Software</t>
-  </si>
-  <si>
-    <t>Documento de Pruebas del Software</t>
-  </si>
-  <si>
-    <t>GT-DPS.DOCX</t>
   </si>
   <si>
     <t>S5 - S6</t>
@@ -1045,22 +1039,22 @@
     <xf borderId="12" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="26" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="26" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="12" fillId="2" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -2073,7 +2067,7 @@
         <v>45071.0</v>
       </c>
       <c r="G33" s="63">
-        <v>45082.0</v>
+        <v>45084.0</v>
       </c>
       <c r="H33" s="34">
         <v>0.0</v>
@@ -2089,11 +2083,11 @@
       <c r="D34" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="77" t="s">
-        <v>100</v>
+      <c r="E34" s="54" t="s">
+        <v>83</v>
       </c>
       <c r="F34" s="63">
-        <v>45082.0</v>
+        <v>45084.0</v>
       </c>
       <c r="G34" s="63">
         <v>45087.0</v>
@@ -2104,19 +2098,19 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="D35" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="79" t="s">
-        <v>104</v>
+      <c r="E35" s="59" t="s">
+        <v>87</v>
       </c>
       <c r="F35" s="63">
-        <v>45082.0</v>
+        <v>45084.0</v>
       </c>
       <c r="G35" s="63">
         <v>45087.0</v>
@@ -2127,21 +2121,21 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="B36" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="80" t="s">
-        <v>108</v>
+      <c r="E36" s="78" t="s">
+        <v>37</v>
       </c>
       <c r="F36" s="63">
-        <v>45082.0</v>
-      </c>
-      <c r="G36" s="81">
+        <v>45084.0</v>
+      </c>
+      <c r="G36" s="79">
         <v>45087.0</v>
       </c>
       <c r="H36" s="34">
@@ -2149,52 +2143,52 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="82"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="81" t="s">
         <v>109</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="79" t="s">
-        <v>108</v>
       </c>
       <c r="F37" s="63">
         <v>45087.0</v>
       </c>
-      <c r="G37" s="81">
+      <c r="G37" s="79">
         <v>45092.0</v>
       </c>
       <c r="H37" s="34">
         <v>0.0</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J37" s="38"/>
       <c r="K37" s="7"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="82"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="E38" s="82" t="s">
         <v>114</v>
-      </c>
-      <c r="D38" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="77" t="s">
-        <v>116</v>
       </c>
       <c r="F38" s="63">
         <v>45087.0</v>
       </c>
-      <c r="G38" s="81">
+      <c r="G38" s="79">
         <v>45092.0</v>
       </c>
       <c r="H38" s="40">
@@ -2208,15 +2202,15 @@
         <v>88</v>
       </c>
       <c r="C39" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="81">
+      <c r="F39" s="79">
         <v>45092.0</v>
       </c>
       <c r="G39" s="85">
@@ -2229,20 +2223,20 @@
       <c r="K39" s="7"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="82"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="51" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="81">
+      <c r="F40" s="79">
         <v>45092.0</v>
       </c>
       <c r="G40" s="85">
@@ -2255,20 +2249,20 @@
       <c r="K40" s="7"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="82"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="87" t="s">
-        <v>124</v>
-      </c>
       <c r="E41" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="81">
+        <v>109</v>
+      </c>
+      <c r="F41" s="79">
         <v>45092.0</v>
       </c>
       <c r="G41" s="89">
@@ -2283,7 +2277,7 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="72"/>
       <c r="B42" s="91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -2296,13 +2290,13 @@
       </c>
       <c r="H42" s="94"/>
       <c r="I42" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J42" s="38"/>
       <c r="K42" s="7"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="82"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="95"/>
       <c r="C43" s="95"/>
       <c r="D43" s="95"/>
@@ -2320,18 +2314,18 @@
       <c r="H44" s="10"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="82"/>
+      <c r="A45" s="80"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J45" s="38"/>
       <c r="K45" s="7"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="82"/>
+      <c r="A46" s="80"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -2339,7 +2333,7 @@
       <c r="K46" s="7"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="82"/>
+      <c r="A47" s="80"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -2347,7 +2341,7 @@
       <c r="K47" s="7"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="82"/>
+      <c r="A48" s="80"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -2355,7 +2349,7 @@
       <c r="K48" s="7"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="82"/>
+      <c r="A49" s="80"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -2363,7 +2357,7 @@
       <c r="K49" s="7"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="82"/>
+      <c r="A50" s="80"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -2386,18 +2380,18 @@
       <c r="Z50" s="7"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="82"/>
+      <c r="A51" s="80"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J51" s="38"/>
       <c r="K51" s="7"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="82"/>
+      <c r="A52" s="80"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -2405,18 +2399,18 @@
       <c r="K52" s="7"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="82"/>
+      <c r="A53" s="80"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J53" s="38"/>
       <c r="K53" s="7"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="82"/>
+      <c r="A54" s="80"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -4176,70 +4170,70 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="98" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="82"/>
+        <v>128</v>
+      </c>
+      <c r="C2" s="80"/>
     </row>
     <row r="3" ht="27.0" customHeight="1">
       <c r="B3" s="99" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="B4" s="100" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" ht="30.0" customHeight="1">
       <c r="B5" s="102" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="103" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="102" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="103" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="102" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="103" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="102" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="102" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="104" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -4247,7 +4241,7 @@
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>

--- a/Desarrollo/GT/Gestión/GT-CP.xlsx
+++ b/Desarrollo/GT/Gestión/GT-CP.xlsx
@@ -825,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1081,6 +1081,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="3" fontId="21" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="17" fillId="3" fontId="21" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2069,8 +2072,8 @@
       <c r="G33" s="63">
         <v>45084.0</v>
       </c>
-      <c r="H33" s="34">
-        <v>0.0</v>
+      <c r="H33" s="40">
+        <v>1.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -2092,8 +2095,8 @@
       <c r="G34" s="63">
         <v>45087.0</v>
       </c>
-      <c r="H34" s="34">
-        <v>0.0</v>
+      <c r="H34" s="40">
+        <v>1.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -2115,8 +2118,8 @@
       <c r="G35" s="63">
         <v>45087.0</v>
       </c>
-      <c r="H35" s="34">
-        <v>0.0</v>
+      <c r="H35" s="40">
+        <v>1.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -2138,8 +2141,8 @@
       <c r="G36" s="79">
         <v>45087.0</v>
       </c>
-      <c r="H36" s="34">
-        <v>0.0</v>
+      <c r="H36" s="40">
+        <v>1.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -2283,12 +2286,12 @@
       <c r="D42" s="92"/>
       <c r="E42" s="92"/>
       <c r="F42" s="93">
-        <v>45071.0</v>
-      </c>
-      <c r="G42" s="93">
+        <v>45066.0</v>
+      </c>
+      <c r="G42" s="94">
         <v>45098.0</v>
       </c>
-      <c r="H42" s="94"/>
+      <c r="H42" s="95"/>
       <c r="I42" s="35" t="s">
         <v>124</v>
       </c>
@@ -2297,18 +2300,18 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="80"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
       <c r="J43" s="38"/>
       <c r="K43" s="7"/>
     </row>
     <row r="44">
-      <c r="B44" s="97"/>
+      <c r="B44" s="98"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -4169,70 +4172,70 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="99" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" ht="27.0" customHeight="1">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="100" t="s">
         <v>129</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="102" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" ht="30.0" customHeight="1">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="104" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="104" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="104" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="104" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="106" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4240,7 +4243,7 @@
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="107" t="s">
         <v>144</v>
       </c>
     </row>

--- a/Desarrollo/GT/Gestión/GT-CP.xlsx
+++ b/Desarrollo/GT/Gestión/GT-CP.xlsx
@@ -825,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -928,12 +928,18 @@
     <xf borderId="12" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="12" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="13" fillId="2" fontId="16" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -946,7 +952,7 @@
     <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -971,7 +977,7 @@
     <xf borderId="12" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1009,7 +1015,7 @@
     <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1035,9 +1041,6 @@
     </xf>
     <xf borderId="12" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -1056,9 +1059,6 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="2" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="12" fillId="0" fontId="26" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1072,9 +1072,6 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="16" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="16" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1544,7 +1541,7 @@
       <c r="C13" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="38" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="32" t="s">
@@ -1562,7 +1559,7 @@
       <c r="I13" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="38"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -1570,10 +1567,10 @@
       <c r="B14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="32" t="s">
@@ -1598,7 +1595,7 @@
       <c r="C15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="41" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="32" t="s">
@@ -1610,11 +1607,11 @@
       <c r="G15" s="33">
         <v>45039.0</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="42">
         <v>1.0</v>
       </c>
       <c r="I15" s="35"/>
-      <c r="J15" s="38"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -1625,7 +1622,7 @@
       <c r="C16" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="41" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="32" t="s">
@@ -1637,11 +1634,11 @@
       <c r="G16" s="33">
         <v>45039.0</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="42">
         <v>1.0</v>
       </c>
       <c r="I16" s="35"/>
-      <c r="J16" s="38"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -1652,7 +1649,7 @@
       <c r="C17" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="41" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="32" t="s">
@@ -1664,11 +1661,11 @@
       <c r="G17" s="33">
         <v>45039.0</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="42">
         <v>1.0</v>
       </c>
       <c r="I17" s="35"/>
-      <c r="J17" s="38"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -1679,7 +1676,7 @@
       <c r="C18" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="41" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="32" t="s">
@@ -1691,11 +1688,11 @@
       <c r="G18" s="33">
         <v>45039.0</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="42">
         <v>1.0</v>
       </c>
       <c r="I18" s="35"/>
-      <c r="J18" s="38"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -1706,7 +1703,7 @@
       <c r="C19" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="41" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="32" t="s">
@@ -1718,11 +1715,11 @@
       <c r="G19" s="33">
         <v>45039.0</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="42">
         <v>1.0</v>
       </c>
       <c r="I19" s="35"/>
-      <c r="J19" s="38"/>
+      <c r="J19" s="39"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -1733,7 +1730,7 @@
       <c r="C20" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="41" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="32" t="s">
@@ -1745,11 +1742,11 @@
       <c r="G20" s="33">
         <v>45039.0</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="42">
         <v>1.0</v>
       </c>
       <c r="I20" s="35"/>
-      <c r="J20" s="38"/>
+      <c r="J20" s="39"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -1760,7 +1757,7 @@
       <c r="C21" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="41" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="32" t="s">
@@ -1772,11 +1769,11 @@
       <c r="G21" s="33">
         <v>45039.0</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="42">
         <v>1.0</v>
       </c>
       <c r="I21" s="35"/>
-      <c r="J21" s="38"/>
+      <c r="J21" s="39"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -1784,10 +1781,10 @@
       <c r="B22" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="41" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="32" t="s">
@@ -1799,11 +1796,11 @@
       <c r="G22" s="33">
         <v>45039.0</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="42">
         <v>1.0</v>
       </c>
       <c r="I22" s="35"/>
-      <c r="J22" s="38"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -1814,7 +1811,7 @@
       <c r="C23" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="41" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -1826,67 +1823,67 @@
       <c r="G23" s="33">
         <v>45045.0</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="42">
         <v>1.0</v>
       </c>
       <c r="I23" s="35"/>
-      <c r="J23" s="38"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="7"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="48">
         <v>45039.0</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="48">
         <v>45045.0</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="42">
         <v>1.0</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="38"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49">
+      <c r="F25" s="51"/>
+      <c r="G25" s="51">
         <v>45046.0</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="J25" s="38"/>
+      <c r="H25" s="52"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="56" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="33">
@@ -1895,365 +1892,365 @@
       <c r="G26" s="33">
         <v>45054.0</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="42">
         <v>1.0</v>
       </c>
-      <c r="J26" s="38"/>
+      <c r="J26" s="39"/>
       <c r="K26" s="7"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="56" t="s">
         <v>79</v>
       </c>
       <c r="F27" s="33">
         <v>45047.0</v>
       </c>
-      <c r="G27" s="58">
+      <c r="G27" s="60">
         <v>45061.0</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="42">
         <v>1.0</v>
       </c>
-      <c r="J27" s="38"/>
+      <c r="J27" s="39"/>
       <c r="K27" s="7"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="60">
         <v>45061.0</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="60">
         <v>45065.0</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="42">
         <v>1.0</v>
       </c>
-      <c r="J28" s="38"/>
+      <c r="J28" s="39"/>
       <c r="K28" s="7"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="58">
+      <c r="F29" s="60">
         <v>45061.0</v>
       </c>
-      <c r="G29" s="58">
+      <c r="G29" s="60">
         <v>45065.0</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="42">
         <v>1.0</v>
       </c>
       <c r="I29" s="35"/>
-      <c r="J29" s="38"/>
+      <c r="J29" s="39"/>
       <c r="K29" s="7"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="65">
         <v>45065.0</v>
       </c>
-      <c r="G30" s="64">
+      <c r="G30" s="66">
         <v>45069.0</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="42">
         <v>1.0</v>
       </c>
       <c r="I30" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="J30" s="38"/>
+      <c r="J30" s="39"/>
       <c r="K30" s="7"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="69">
+      <c r="F31" s="71">
         <v>45065.0</v>
       </c>
-      <c r="G31" s="70">
+      <c r="G31" s="72">
         <v>45069.0</v>
       </c>
-      <c r="H31" s="71">
+      <c r="H31" s="73">
         <v>1.0</v>
       </c>
       <c r="I31" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="J31" s="38"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="7"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="48" t="s">
+      <c r="A32" s="74"/>
+      <c r="B32" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="51">
         <v>45047.0</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="51">
         <v>45070.0</v>
       </c>
-      <c r="H32" s="73"/>
-      <c r="J32" s="38"/>
+      <c r="H32" s="75"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="7"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="64">
+      <c r="F33" s="66">
         <v>45071.0</v>
       </c>
-      <c r="G33" s="63">
+      <c r="G33" s="65">
         <v>45084.0</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="42">
         <v>1.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="65">
         <v>45084.0</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="65">
         <v>45087.0</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="42">
         <v>1.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="65">
         <v>45084.0</v>
       </c>
-      <c r="G35" s="63">
+      <c r="G35" s="65">
         <v>45087.0</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="42">
         <v>1.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="63">
+      <c r="F36" s="65">
         <v>45084.0</v>
       </c>
-      <c r="G36" s="79">
+      <c r="G36" s="80">
         <v>45087.0</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="42">
         <v>1.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="51" t="s">
+      <c r="A37" s="81"/>
+      <c r="B37" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="81" t="s">
+      <c r="E37" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="65">
         <v>45087.0</v>
       </c>
-      <c r="G37" s="79">
+      <c r="G37" s="80">
         <v>45092.0</v>
       </c>
-      <c r="H37" s="34">
-        <v>0.0</v>
+      <c r="H37" s="42">
+        <v>1.0</v>
       </c>
       <c r="I37" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J37" s="38"/>
+      <c r="J37" s="39"/>
       <c r="K37" s="7"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="80"/>
-      <c r="B38" s="55" t="s">
+      <c r="A38" s="81"/>
+      <c r="B38" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="76" t="s">
+      <c r="D38" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="82" t="s">
+      <c r="E38" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="63">
+      <c r="F38" s="65">
         <v>45087.0</v>
       </c>
-      <c r="G38" s="79">
+      <c r="G38" s="80">
         <v>45092.0</v>
       </c>
-      <c r="H38" s="40">
-        <v>0.0</v>
-      </c>
-      <c r="J38" s="38"/>
+      <c r="H38" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="J38" s="39"/>
       <c r="K38" s="7"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="84" t="s">
+      <c r="D39" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="82" t="s">
+      <c r="E39" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="79">
+      <c r="F39" s="80">
         <v>45092.0</v>
       </c>
       <c r="G39" s="85">
         <v>45097.0</v>
       </c>
-      <c r="H39" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="J39" s="38"/>
+      <c r="H39" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="J39" s="39"/>
       <c r="K39" s="7"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="80"/>
-      <c r="B40" s="51" t="s">
+      <c r="A40" s="81"/>
+      <c r="B40" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="76" t="s">
+      <c r="D40" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="81" t="s">
+      <c r="E40" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="79">
+      <c r="F40" s="80">
         <v>45092.0</v>
       </c>
       <c r="G40" s="85">
         <v>45097.0</v>
       </c>
-      <c r="H40" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="J40" s="38"/>
+      <c r="H40" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="J40" s="39"/>
       <c r="K40" s="7"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="80"/>
-      <c r="B41" s="65" t="s">
+      <c r="A41" s="81"/>
+      <c r="B41" s="67" t="s">
         <v>120</v>
       </c>
       <c r="C41" s="86" t="s">
@@ -2265,106 +2262,106 @@
       <c r="E41" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="79">
+      <c r="F41" s="80">
         <v>45092.0</v>
       </c>
       <c r="G41" s="89">
         <v>45097.0</v>
       </c>
-      <c r="H41" s="90">
-        <v>0.0</v>
-      </c>
-      <c r="J41" s="38"/>
+      <c r="H41" s="73">
+        <v>1.0</v>
+      </c>
+      <c r="J41" s="39"/>
       <c r="K41" s="7"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="72"/>
-      <c r="B42" s="91" t="s">
+      <c r="A42" s="74"/>
+      <c r="B42" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="93">
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="92">
         <v>45066.0</v>
       </c>
-      <c r="G42" s="94">
+      <c r="G42" s="93">
         <v>45098.0</v>
       </c>
-      <c r="H42" s="95"/>
+      <c r="H42" s="94"/>
       <c r="I42" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="J42" s="38"/>
+      <c r="J42" s="39"/>
       <c r="K42" s="7"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="80"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="J43" s="38"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="J43" s="39"/>
       <c r="K43" s="7"/>
     </row>
     <row r="44">
-      <c r="B44" s="98"/>
+      <c r="B44" s="97"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="80"/>
+      <c r="A45" s="81"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="J45" s="38"/>
+      <c r="J45" s="39"/>
       <c r="K45" s="7"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="80"/>
+      <c r="A46" s="81"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
-      <c r="J46" s="38"/>
+      <c r="J46" s="39"/>
       <c r="K46" s="7"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="80"/>
+      <c r="A47" s="81"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
-      <c r="J47" s="38"/>
+      <c r="J47" s="39"/>
       <c r="K47" s="7"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="80"/>
+      <c r="A48" s="81"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="J48" s="38"/>
+      <c r="J48" s="39"/>
       <c r="K48" s="7"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="80"/>
+      <c r="A49" s="81"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-      <c r="J49" s="38"/>
+      <c r="J49" s="39"/>
       <c r="K49" s="7"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="80"/>
+      <c r="A50" s="81"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
-      <c r="J50" s="38"/>
+      <c r="J50" s="39"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -2383,41 +2380,41 @@
       <c r="Z50" s="7"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="80"/>
+      <c r="A51" s="81"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="J51" s="38"/>
+      <c r="J51" s="39"/>
       <c r="K51" s="7"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="80"/>
+      <c r="A52" s="81"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
-      <c r="J52" s="38"/>
+      <c r="J52" s="39"/>
       <c r="K52" s="7"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="80"/>
+      <c r="A53" s="81"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="J53" s="38"/>
+      <c r="J53" s="39"/>
       <c r="K53" s="7"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="80"/>
+      <c r="A54" s="81"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
-      <c r="J54" s="38"/>
+      <c r="J54" s="39"/>
       <c r="K54" s="7"/>
     </row>
     <row r="55" ht="21.0" customHeight="1">
@@ -4172,70 +4169,70 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="80"/>
+      <c r="C2" s="81"/>
     </row>
     <row r="3" ht="27.0" customHeight="1">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="99" t="s">
         <v>129</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="101" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" ht="30.0" customHeight="1">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="103" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="103" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="103" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="103" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="103" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="105" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4243,7 +4240,7 @@
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="106" t="s">
         <v>144</v>
       </c>
     </row>
